--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Cd40</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H2">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.74485854909368</v>
+        <v>2.929393</v>
       </c>
       <c r="N2">
-        <v>1.74485854909368</v>
+        <v>8.788179</v>
       </c>
       <c r="O2">
-        <v>0.06734022875153137</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="P2">
-        <v>0.06734022875153137</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="Q2">
-        <v>0.6425822203986885</v>
+        <v>1.376363583478</v>
       </c>
       <c r="R2">
-        <v>0.6425822203986885</v>
+        <v>12.387272251302</v>
       </c>
       <c r="S2">
-        <v>0.0002889863058411201</v>
+        <v>0.000545133263814313</v>
       </c>
       <c r="T2">
-        <v>0.0002889863058411201</v>
+        <v>0.0005451332638143131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +593,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H3">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>9.89656553530674</v>
+        <v>0.12146</v>
       </c>
       <c r="N3">
-        <v>9.89656553530674</v>
+        <v>0.36438</v>
       </c>
       <c r="O3">
-        <v>0.3819432740540717</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="P3">
-        <v>0.3819432740540717</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="Q3">
-        <v>3.644626127030032</v>
+        <v>0.05706749516</v>
       </c>
       <c r="R3">
-        <v>3.644626127030032</v>
+        <v>0.5136074564399999</v>
       </c>
       <c r="S3">
-        <v>0.001639085251952588</v>
+        <v>2.26025959039591E-05</v>
       </c>
       <c r="T3">
-        <v>0.001639085251952588</v>
+        <v>2.26025959039591E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H4">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7858000029112</v>
+        <v>10.74733466666667</v>
       </c>
       <c r="N4">
-        <v>12.7858000029112</v>
+        <v>32.24200399999999</v>
       </c>
       <c r="O4">
-        <v>0.4934489947134072</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="P4">
-        <v>0.4934489947134072</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="Q4">
-        <v>4.708649741098945</v>
+        <v>5.049592203794666</v>
       </c>
       <c r="R4">
-        <v>4.708649741098945</v>
+        <v>45.44632983415199</v>
       </c>
       <c r="S4">
-        <v>0.002117604955418259</v>
+        <v>0.001999980755106847</v>
       </c>
       <c r="T4">
-        <v>0.002117604955418259</v>
+        <v>0.001999980755106847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H5">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48386325888336</v>
+        <v>13.63816866666667</v>
       </c>
       <c r="N5">
-        <v>1.48386325888336</v>
+        <v>40.914506</v>
       </c>
       <c r="O5">
-        <v>0.05726750248098963</v>
+        <v>0.4704187917209248</v>
       </c>
       <c r="P5">
-        <v>0.05726750248098963</v>
+        <v>0.4704187917209249</v>
       </c>
       <c r="Q5">
-        <v>0.5464650118237812</v>
+        <v>6.407838995358667</v>
       </c>
       <c r="R5">
-        <v>0.5464650118237812</v>
+        <v>57.67055095822801</v>
       </c>
       <c r="S5">
-        <v>0.0002457598421263459</v>
+        <v>0.002537938541435068</v>
       </c>
       <c r="T5">
-        <v>0.0002457598421263459</v>
+        <v>0.002537938541435069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.43443696708626</v>
+        <v>0.469846</v>
       </c>
       <c r="H6">
-        <v>2.43443696708626</v>
+        <v>1.409538</v>
       </c>
       <c r="I6">
-        <v>0.0283682621130728</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J6">
-        <v>0.0283682621130728</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.74485854909368</v>
+        <v>1.555191</v>
       </c>
       <c r="N6">
-        <v>1.74485854909368</v>
+        <v>4.665572999999999</v>
       </c>
       <c r="O6">
-        <v>0.06734022875153137</v>
+        <v>0.05364291122922931</v>
       </c>
       <c r="P6">
-        <v>0.06734022875153137</v>
+        <v>0.05364291122922932</v>
       </c>
       <c r="Q6">
-        <v>4.24774815425015</v>
+        <v>0.7307002705859998</v>
       </c>
       <c r="R6">
-        <v>4.24774815425015</v>
+        <v>6.576302435273999</v>
       </c>
       <c r="S6">
-        <v>0.001910325259977723</v>
+        <v>0.0002894068312734567</v>
       </c>
       <c r="T6">
-        <v>0.001910325259977723</v>
+        <v>0.0002894068312734567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H7">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I7">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J7">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.89656553530674</v>
+        <v>2.929393</v>
       </c>
       <c r="N7">
-        <v>9.89656553530674</v>
+        <v>8.788179</v>
       </c>
       <c r="O7">
-        <v>0.3819432740540717</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="P7">
-        <v>0.3819432740540717</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="Q7">
-        <v>24.09256498634255</v>
+        <v>8.491340677916998</v>
       </c>
       <c r="R7">
-        <v>24.09256498634255</v>
+        <v>76.42206610125299</v>
       </c>
       <c r="S7">
-        <v>0.01083506691069111</v>
+        <v>0.003363146419651057</v>
       </c>
       <c r="T7">
-        <v>0.01083506691069111</v>
+        <v>0.003363146419651058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H8">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7858000029112</v>
+        <v>0.12146</v>
       </c>
       <c r="N8">
-        <v>12.7858000029112</v>
+        <v>0.36438</v>
       </c>
       <c r="O8">
-        <v>0.4934489947134072</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="P8">
-        <v>0.4934489947134072</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="Q8">
-        <v>31.12622418085864</v>
+        <v>0.35207233674</v>
       </c>
       <c r="R8">
-        <v>31.12622418085864</v>
+        <v>3.16865103066</v>
       </c>
       <c r="S8">
-        <v>0.01399829042146221</v>
+        <v>0.0001394445074903973</v>
       </c>
       <c r="T8">
-        <v>0.01399829042146221</v>
+        <v>0.0001394445074903973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,122 +965,122 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H9">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48386325888336</v>
+        <v>10.74733466666667</v>
       </c>
       <c r="N9">
-        <v>1.48386325888336</v>
+        <v>32.24200399999999</v>
       </c>
       <c r="O9">
-        <v>0.05726750248098963</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="P9">
-        <v>0.05726750248098963</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="Q9">
-        <v>3.612371571526741</v>
+        <v>31.152965830892</v>
       </c>
       <c r="R9">
-        <v>3.612371571526741</v>
+        <v>280.376692478028</v>
       </c>
       <c r="S9">
-        <v>0.001624579520941761</v>
+        <v>0.01233868590011367</v>
       </c>
       <c r="T9">
-        <v>0.001624579520941761</v>
+        <v>0.01233868590011367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.43497277802715</v>
+        <v>2.898669</v>
       </c>
       <c r="H10">
-        <v>4.43497277802715</v>
+        <v>8.696007</v>
       </c>
       <c r="I10">
-        <v>0.05168031537986374</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J10">
-        <v>0.05168031537986374</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.74485854909368</v>
+        <v>13.63816866666667</v>
       </c>
       <c r="N10">
-        <v>1.74485854909368</v>
+        <v>40.914506</v>
       </c>
       <c r="O10">
-        <v>0.06734022875153137</v>
+        <v>0.4704187917209248</v>
       </c>
       <c r="P10">
-        <v>0.06734022875153137</v>
+        <v>0.4704187917209249</v>
       </c>
       <c r="Q10">
-        <v>7.738400166738422</v>
+        <v>39.532536730838</v>
       </c>
       <c r="R10">
-        <v>7.738400166738422</v>
+        <v>355.792830577542</v>
       </c>
       <c r="S10">
-        <v>0.003480164259631309</v>
+        <v>0.01565756391235223</v>
       </c>
       <c r="T10">
-        <v>0.003480164259631309</v>
+        <v>0.01565756391235223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,55 +1089,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.43497277802715</v>
+        <v>2.898669</v>
       </c>
       <c r="H11">
-        <v>4.43497277802715</v>
+        <v>8.696007</v>
       </c>
       <c r="I11">
-        <v>0.05168031537986374</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J11">
-        <v>0.05168031537986374</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.89656553530674</v>
+        <v>1.555191</v>
       </c>
       <c r="N11">
-        <v>9.89656553530674</v>
+        <v>4.665572999999999</v>
       </c>
       <c r="O11">
-        <v>0.3819432740540717</v>
+        <v>0.05364291122922931</v>
       </c>
       <c r="P11">
-        <v>0.3819432740540717</v>
+        <v>0.05364291122922932</v>
       </c>
       <c r="Q11">
-        <v>43.89099874504709</v>
+        <v>4.507983940778999</v>
       </c>
       <c r="R11">
-        <v>43.89099874504709</v>
+        <v>40.57185546701099</v>
       </c>
       <c r="S11">
-        <v>0.01973894886033215</v>
+        <v>0.001785467174777692</v>
       </c>
       <c r="T11">
-        <v>0.01973894886033215</v>
+        <v>0.001785467174777692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H12">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I12">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J12">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.7858000029112</v>
+        <v>2.929393</v>
       </c>
       <c r="N12">
-        <v>12.7858000029112</v>
+        <v>8.788179</v>
       </c>
       <c r="O12">
-        <v>0.4934489947134072</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="P12">
-        <v>0.4934489947134072</v>
+        <v>0.1010430028559359</v>
       </c>
       <c r="Q12">
-        <v>56.70467495821063</v>
+        <v>13.039085628946</v>
       </c>
       <c r="R12">
-        <v>56.70467495821063</v>
+        <v>117.351770660514</v>
       </c>
       <c r="S12">
-        <v>0.0255015996706656</v>
+        <v>0.005164361649339766</v>
       </c>
       <c r="T12">
-        <v>0.0255015996706656</v>
+        <v>0.005164361649339768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,60 +1213,60 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H13">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I13">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J13">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.48386325888336</v>
+        <v>0.12146</v>
       </c>
       <c r="N13">
-        <v>1.48386325888336</v>
+        <v>0.36438</v>
       </c>
       <c r="O13">
-        <v>0.05726750248098963</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="P13">
-        <v>0.05726750248098963</v>
+        <v>0.004189496980050806</v>
       </c>
       <c r="Q13">
-        <v>6.580893159462356</v>
+        <v>0.5406332781199998</v>
       </c>
       <c r="R13">
-        <v>6.580893159462356</v>
+        <v>4.865699503079999</v>
       </c>
       <c r="S13">
-        <v>0.002959602589234673</v>
+        <v>0.0002141274202296544</v>
       </c>
       <c r="T13">
-        <v>0.002959602589234673</v>
+        <v>0.0002141274202296545</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1272,60 +1275,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.57783147534511</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H14">
-        <v>78.57783147534511</v>
+        <v>13.353366</v>
       </c>
       <c r="I14">
-        <v>0.9156599861517251</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J14">
-        <v>0.9156599861517251</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.74485854909368</v>
+        <v>10.74733466666667</v>
       </c>
       <c r="N14">
-        <v>1.74485854909368</v>
+        <v>32.24200399999999</v>
       </c>
       <c r="O14">
-        <v>0.06734022875153137</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="P14">
-        <v>0.06734022875153137</v>
+        <v>0.3707057972138592</v>
       </c>
       <c r="Q14">
-        <v>137.1072010189984</v>
+        <v>47.83769777616265</v>
       </c>
       <c r="R14">
-        <v>137.1072010189984</v>
+        <v>430.5392799854638</v>
       </c>
       <c r="S14">
-        <v>0.06166075292608121</v>
+        <v>0.01894697057894011</v>
       </c>
       <c r="T14">
-        <v>0.06166075292608121</v>
+        <v>0.01894697057894012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1334,117 +1337,117 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.57783147534511</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H15">
-        <v>78.57783147534511</v>
+        <v>13.353366</v>
       </c>
       <c r="I15">
-        <v>0.9156599861517251</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J15">
-        <v>0.9156599861517251</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.89656553530674</v>
+        <v>13.63816866666667</v>
       </c>
       <c r="N15">
-        <v>9.89656553530674</v>
+        <v>40.914506</v>
       </c>
       <c r="O15">
-        <v>0.3819432740540717</v>
+        <v>0.4704187917209248</v>
       </c>
       <c r="P15">
-        <v>0.3819432740540717</v>
+        <v>0.4704187917209249</v>
       </c>
       <c r="Q15">
-        <v>777.6506588180415</v>
+        <v>60.70515259191065</v>
       </c>
       <c r="R15">
-        <v>777.6506588180415</v>
+        <v>546.3463733271959</v>
       </c>
       <c r="S15">
-        <v>0.3497301730310959</v>
+        <v>0.02404335479376123</v>
       </c>
       <c r="T15">
-        <v>0.3497301730310959</v>
+        <v>0.02404335479376124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.57783147534511</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H16">
-        <v>78.57783147534511</v>
+        <v>13.353366</v>
       </c>
       <c r="I16">
-        <v>0.9156599861517251</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J16">
-        <v>0.9156599861517251</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.7858000029112</v>
+        <v>1.555191</v>
       </c>
       <c r="N16">
-        <v>12.7858000029112</v>
+        <v>4.665572999999999</v>
       </c>
       <c r="O16">
-        <v>0.4934489947134072</v>
+        <v>0.05364291122922931</v>
       </c>
       <c r="P16">
-        <v>0.4934489947134072</v>
+        <v>0.05364291122922932</v>
       </c>
       <c r="Q16">
-        <v>1004.680437906223</v>
+        <v>6.922344874301997</v>
       </c>
       <c r="R16">
-        <v>1004.680437906223</v>
+        <v>62.30110386871798</v>
       </c>
       <c r="S16">
-        <v>0.4518314996658611</v>
+        <v>0.002741717740773723</v>
       </c>
       <c r="T16">
-        <v>0.4518314996658611</v>
+        <v>0.002741717740773724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>79.268519</v>
+      </c>
+      <c r="H17">
+        <v>237.805557</v>
+      </c>
+      <c r="I17">
+        <v>0.9102100979150368</v>
+      </c>
+      <c r="J17">
+        <v>0.9102100979150369</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.929393</v>
+      </c>
+      <c r="N17">
+        <v>8.788179</v>
+      </c>
+      <c r="O17">
+        <v>0.1010430028559359</v>
+      </c>
+      <c r="P17">
+        <v>0.1010430028559359</v>
+      </c>
+      <c r="Q17">
+        <v>232.208644678967</v>
+      </c>
+      <c r="R17">
+        <v>2089.877802110703</v>
+      </c>
+      <c r="S17">
+        <v>0.09197036152313072</v>
+      </c>
+      <c r="T17">
+        <v>0.09197036152313076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>78.57783147534511</v>
-      </c>
-      <c r="H17">
-        <v>78.57783147534511</v>
-      </c>
-      <c r="I17">
-        <v>0.9156599861517251</v>
-      </c>
-      <c r="J17">
-        <v>0.9156599861517251</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.48386325888336</v>
-      </c>
-      <c r="N17">
-        <v>1.48386325888336</v>
-      </c>
-      <c r="O17">
-        <v>0.05726750248098963</v>
-      </c>
-      <c r="P17">
-        <v>0.05726750248098963</v>
-      </c>
-      <c r="Q17">
-        <v>116.5987570889931</v>
-      </c>
-      <c r="R17">
-        <v>116.5987570889931</v>
-      </c>
-      <c r="S17">
-        <v>0.05243756052868685</v>
-      </c>
-      <c r="T17">
-        <v>0.05243756052868685</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>79.268519</v>
+      </c>
+      <c r="H18">
+        <v>237.805557</v>
+      </c>
+      <c r="I18">
+        <v>0.9102100979150368</v>
+      </c>
+      <c r="J18">
+        <v>0.9102100979150369</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.12146</v>
+      </c>
+      <c r="N18">
+        <v>0.36438</v>
+      </c>
+      <c r="O18">
+        <v>0.004189496980050806</v>
+      </c>
+      <c r="P18">
+        <v>0.004189496980050806</v>
+      </c>
+      <c r="Q18">
+        <v>9.62795431774</v>
+      </c>
+      <c r="R18">
+        <v>86.65158885966</v>
+      </c>
+      <c r="S18">
+        <v>0.003813322456426795</v>
+      </c>
+      <c r="T18">
+        <v>0.003813322456426796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>79.268519</v>
+      </c>
+      <c r="H19">
+        <v>237.805557</v>
+      </c>
+      <c r="I19">
+        <v>0.9102100979150368</v>
+      </c>
+      <c r="J19">
+        <v>0.9102100979150369</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.74733466666667</v>
+      </c>
+      <c r="N19">
+        <v>32.24200399999999</v>
+      </c>
+      <c r="O19">
+        <v>0.3707057972138592</v>
+      </c>
+      <c r="P19">
+        <v>0.3707057972138592</v>
+      </c>
+      <c r="Q19">
+        <v>851.9253022240252</v>
+      </c>
+      <c r="R19">
+        <v>7667.327720016227</v>
+      </c>
+      <c r="S19">
+        <v>0.3374201599796985</v>
+      </c>
+      <c r="T19">
+        <v>0.3374201599796985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>79.268519</v>
+      </c>
+      <c r="H20">
+        <v>237.805557</v>
+      </c>
+      <c r="I20">
+        <v>0.9102100979150368</v>
+      </c>
+      <c r="J20">
+        <v>0.9102100979150369</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.63816866666667</v>
+      </c>
+      <c r="N20">
+        <v>40.914506</v>
+      </c>
+      <c r="O20">
+        <v>0.4704187917209248</v>
+      </c>
+      <c r="P20">
+        <v>0.4704187917209249</v>
+      </c>
+      <c r="Q20">
+        <v>1081.077432078871</v>
+      </c>
+      <c r="R20">
+        <v>9729.696888709843</v>
+      </c>
+      <c r="S20">
+        <v>0.4281799344733763</v>
+      </c>
+      <c r="T20">
+        <v>0.4281799344733764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>79.268519</v>
+      </c>
+      <c r="H21">
+        <v>237.805557</v>
+      </c>
+      <c r="I21">
+        <v>0.9102100979150368</v>
+      </c>
+      <c r="J21">
+        <v>0.9102100979150369</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.555191</v>
+      </c>
+      <c r="N21">
+        <v>4.665572999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.05364291122922931</v>
+      </c>
+      <c r="P21">
+        <v>0.05364291122922932</v>
+      </c>
+      <c r="Q21">
+        <v>123.277687332129</v>
+      </c>
+      <c r="R21">
+        <v>1109.499185989161</v>
+      </c>
+      <c r="S21">
+        <v>0.04882631948240444</v>
+      </c>
+      <c r="T21">
+        <v>0.04882631948240445</v>
       </c>
     </row>
   </sheetData>
